--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98752C14-9F7E-0B4B-8FEE-E899C27E94BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C7D60D-A7DC-A44D-89DE-0A0B2978AEFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -343,6 +341,36 @@
   </si>
   <si>
     <t>EDIT_DETAILS_BTN</t>
+  </si>
+  <si>
+    <t>SECURE_SIGN_IN_LABEL</t>
+  </si>
+  <si>
+    <t>PLEASE_ENTER_SIX_DIGIT_PIN_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>SECURE_SIGN_IN_INPUT_FIELD</t>
+  </si>
+  <si>
+    <t>I_NEED_HELP_WITH_MY_PIN_LINK</t>
+  </si>
+  <si>
+    <t>SECURE_SIGN_IN_VERIFY_BTN</t>
+  </si>
+  <si>
+    <t>Secure sign in</t>
+  </si>
+  <si>
+    <t>Please enter the 6-digit PIN</t>
+  </si>
+  <si>
+    <t>sign-in-verify-pin-input-field</t>
+  </si>
+  <si>
+    <t>I need help with my PIN</t>
+  </si>
+  <si>
+    <t>sign-in-verify-pin-button</t>
   </si>
 </sst>
 </file>
@@ -719,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1300,26 +1328,56 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C7D60D-A7DC-A44D-89DE-0A0B2978AEFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C95CFC4-797D-0D4F-8E86-43CF2842BE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -371,6 +371,96 @@
   </si>
   <si>
     <t>sign-in-verify-pin-button</t>
+  </si>
+  <si>
+    <t>Forgot sign in details? Not to worry. Just tap the relevant button below to fix this.</t>
+  </si>
+  <si>
+    <t>FORGOT_SIGN_IN_DETAILS_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>Forgot username</t>
+  </si>
+  <si>
+    <t>FORGOT_USER_NAME_BTN</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>FORGOT_PWD_BTN</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>CANCEL_BTN</t>
+  </si>
+  <si>
+    <t>Accept All</t>
+  </si>
+  <si>
+    <t>ACCEPT_ALL_WEBSITE_BTN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField[@value='YYYY']</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField[@value='DD']</t>
+  </si>
+  <si>
+    <t>DD_FIELD_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField[@value='MM']</t>
+  </si>
+  <si>
+    <t>MM_FIELD_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>YYYY_FIELD_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeOther[@name="Forgotten Username"])[1]/XCUIElementTypeTextField[4]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NUMBER_FIELD_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name='Date Of Birth']</t>
+  </si>
+  <si>
+    <t>DOB_STATIC_TEXT_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NUMBER_STATIC_TEXT_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name='Account Number']</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name='Forgotten Password']</t>
+  </si>
+  <si>
+    <t>FORGOTTEN_PWD_TXT_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name='Username']</t>
+  </si>
+  <si>
+    <t>USERNAME_TXT_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name='Next']</t>
+  </si>
+  <si>
+    <t>NEXT_BTN_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name='Forgotten Username']</t>
+  </si>
+  <si>
+    <t>FORGOTTEN_USERNAME_TXT_IN_WEBSITE</t>
   </si>
 </sst>
 </file>
@@ -745,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1382,6 +1472,171 @@
         <v>8</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C95CFC4-797D-0D4F-8E86-43CF2842BE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1512C1-74E9-F946-90C8-0FE544736F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -461,6 +461,90 @@
   </si>
   <si>
     <t>FORGOTTEN_USERNAME_TXT_IN_WEBSITE</t>
+  </si>
+  <si>
+    <t>SIGN_IN_STEP_2_OF_4_TITLE</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Sign in step 2 of 4"]</t>
+  </si>
+  <si>
+    <t>We sent a 6-digit code to the mobile number. Enter it below to verify your identity.</t>
+  </si>
+  <si>
+    <t>WE_HAVE_SENT_A_6_DIGIT_CODE_TXT_2FA_SCREEN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Sign in step 3 of 4"]</t>
+  </si>
+  <si>
+    <t>SIGN_IN_STEP_3_OF_4_TITLE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Incorrect code"]</t>
+  </si>
+  <si>
+    <t>INCORRECT_CODE_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>Struggling to verify your account? Not to worry. Just tap the relevant button below to get back on track.</t>
+  </si>
+  <si>
+    <t>STRUGGLING_TO_VERIFY_CODE_POP_TXT</t>
+  </si>
+  <si>
+    <t>Resend 6-digit code</t>
+  </si>
+  <si>
+    <t>RESEND_6_DIGIT_CODE_BTN</t>
+  </si>
+  <si>
+    <t>CHECK_MOBILE_NUMBER_BTN</t>
+  </si>
+  <si>
+    <t>Check mobile number</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Login"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Password"]</t>
+  </si>
+  <si>
+    <t>PASSWORD_TXT_IN_WEB</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Login"]</t>
+  </si>
+  <si>
+    <t>LOGIN_BTN_IN_WEB</t>
+  </si>
+  <si>
+    <t>LOGIN_TXT_IN_WEB</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeOther[@name="Login"])[1]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>USERNAME_WEB_FIELD</t>
+  </si>
+  <si>
+    <t>PASSWORD_WEB_FIELD</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeOther[@name="Login"])[1]/XCUIElementTypeSecureTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Memorable Word"]</t>
+  </si>
+  <si>
+    <t>MEMERABLE_WORD_WEB_TXT</t>
   </si>
 </sst>
 </file>
@@ -835,15 +919,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -1637,6 +1721,160 @@
         <v>5</v>
       </c>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1512C1-74E9-F946-90C8-0FE544736F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151C906-0729-3140-9802-595A14946303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>MEMERABLE_WORD_WEB_TXT</t>
+  </si>
+  <si>
+    <t>SIGN_IN_STEP_4_OF_4_TITLE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Sign in step 4 of 4"]</t>
+  </si>
+  <si>
+    <t>Create your PIN</t>
+  </si>
+  <si>
+    <t>CREATE_YOUR_PIN_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>You’ll use this 6-digit PIN to log in to your OneCS account securely if you don’t enable Biometrics.</t>
+  </si>
+  <si>
+    <t>YOU_WILL_USE_THIS_PIN_TXT_IN_SIGN3_SCREEN</t>
   </si>
 </sst>
 </file>
@@ -919,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1875,6 +1893,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151C906-0729-3140-9802-595A14946303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FADFC-2509-6044-9E96-6E79AC72085B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="193">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -563,6 +563,51 @@
   </si>
   <si>
     <t>YOU_WILL_USE_THIS_PIN_TXT_IN_SIGN3_SCREEN</t>
+  </si>
+  <si>
+    <t>Confirm your PIN</t>
+  </si>
+  <si>
+    <t>CONFIRM_PIN_LABEL_TXT_SIGN_IN_4</t>
+  </si>
+  <si>
+    <t>I need help confirming my PIN</t>
+  </si>
+  <si>
+    <t>I_NEED_HELP_CONFIRMING_MY_PIN_LINK</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Incorrect PIN"]</t>
+  </si>
+  <si>
+    <t>INCORRECT_PIN_POP_UP_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>Sorry, your PIN does not match. Please try again.</t>
+  </si>
+  <si>
+    <t>more-screen-sign-out-button</t>
+  </si>
+  <si>
+    <t>SIGN_OUT_BTN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="OneCS"]</t>
+  </si>
+  <si>
+    <t>ONECS_TXT_MORE_MENU</t>
+  </si>
+  <si>
+    <t>SECURE_SIGN_IN_LABEL_TXT_IN_BIOMETRICS</t>
+  </si>
+  <si>
+    <t>You can sign in with face ID or your fingerprint.</t>
+  </si>
+  <si>
+    <t>YOU_CAN_SIGN_IN_WITH_FACE_ID_FINGERPRINT_TXT</t>
+  </si>
+  <si>
+    <t>SORRY_PIN_DOES_NOT_MATCH_POP_UP_TXT</t>
   </si>
 </sst>
 </file>
@@ -937,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1926,6 +1971,94 @@
         <v>8</v>
       </c>
     </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85FADFC-2509-6044-9E96-6E79AC72085B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76469AA6-E6D1-A944-ACA6-F3419936C03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="199">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -608,6 +608,24 @@
   </si>
   <si>
     <t>SORRY_PIN_DOES_NOT_MATCH_POP_UP_TXT</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Biometrics disabled"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Please go to device setting to enable."]</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>BTN_OK_IN_POP_UP</t>
+  </si>
+  <si>
+    <t>BIOMETRICS_DISABLED_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>PLEASE_GO_TO_DEVICE_SETTINGS_BIO_TXT</t>
   </si>
 </sst>
 </file>
@@ -982,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2059,6 +2077,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76469AA6-E6D1-A944-ACA6-F3419936C03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACB07D-E631-7E4D-B388-630837108F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -626,6 +626,372 @@
   </si>
   <si>
     <t>PLEASE_GO_TO_DEVICE_SETTINGS_BIO_TXT</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="USER SETTINGS"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="HELP &amp; SUPPORT"]</t>
+  </si>
+  <si>
+    <t>USER_SETTINGS_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>HELP_&amp;_SUPPORT_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="MARKETS INFORMATION"]</t>
+  </si>
+  <si>
+    <t>MARKETS_INFORMATION_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="ABOUT CHARLES STANLEY"]</t>
+  </si>
+  <si>
+    <t>ABOUT_CHARLES_STANLEY_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>Account settings</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SETTINGS_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[1]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SETTINGS_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[2]</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_profile"])[1]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SETTINGS_PROFILE_IMAGE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeImage[@name="ic_documents"]</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_IMAGE</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>FAQS_LABEL_TXT_MORE</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[3]</t>
+  </si>
+  <si>
+    <t>FAQS_CHEVRON</t>
+  </si>
+  <si>
+    <t>ic_faq</t>
+  </si>
+  <si>
+    <t>FAQS_IMAGE</t>
+  </si>
+  <si>
+    <t>Help centre</t>
+  </si>
+  <si>
+    <t>HELP_CENTRE_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>ic_help</t>
+  </si>
+  <si>
+    <t>HELP_IMAGE</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[4]</t>
+  </si>
+  <si>
+    <t>HELP_CHEVRON</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>GLOSSARY_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>ic_glossary</t>
+  </si>
+  <si>
+    <t>GLOSSARY_IMAGE</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[5]</t>
+  </si>
+  <si>
+    <t>GLOSSARY_CHEVRON</t>
+  </si>
+  <si>
+    <t>What's new</t>
+  </si>
+  <si>
+    <t>WHATS_NEW_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>WHATS_NEW_IMAGE</t>
+  </si>
+  <si>
+    <t>WHATS_NEW_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_profile"])[2]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[6]</t>
+  </si>
+  <si>
+    <t>Market data</t>
+  </si>
+  <si>
+    <t>MARKET_DATA_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>MARKET_DATA_IMAGE</t>
+  </si>
+  <si>
+    <t>MARKET_DATA_CHEVRON</t>
+  </si>
+  <si>
+    <t>ic_market_data</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[7]</t>
+  </si>
+  <si>
+    <t>Currency rates</t>
+  </si>
+  <si>
+    <t>CURRENCY_RATES_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>CURRENCY_RATES_IMAGE</t>
+  </si>
+  <si>
+    <t>CURRENCY_RATES_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[8]</t>
+  </si>
+  <si>
+    <t>ic_currency_rates</t>
+  </si>
+  <si>
+    <t>Contact details</t>
+  </si>
+  <si>
+    <t>CONTACT_DETAILS_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>CONTACT_DETAILS_IMAGE</t>
+  </si>
+  <si>
+    <t>CONTACT_DETAILS_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_profile"])[3]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[9]</t>
+  </si>
+  <si>
+    <t>Important information</t>
+  </si>
+  <si>
+    <t>IMPORTANT_INFORMATION_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>IMPORTANT_INFORMATION_IMAGE</t>
+  </si>
+  <si>
+    <t>IMPORTANT_INFORMATION_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_profile"])[4]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[10]</t>
+  </si>
+  <si>
+    <t>Licensing information</t>
+  </si>
+  <si>
+    <t>LICENSING_INFORMATION_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>LICENSING_INFORMATION_IMAGE</t>
+  </si>
+  <si>
+    <t>LICENSING_INFORMATION_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_profile"])[5]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[11]</t>
+  </si>
+  <si>
+    <t>Rate us</t>
+  </si>
+  <si>
+    <t>RATE_US_LABEL_MORE</t>
+  </si>
+  <si>
+    <t>RATE_US_LABEL_IMAGE</t>
+  </si>
+  <si>
+    <t>RATE_US_LABEL_CHEVRON</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_profile"])[6]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="chevron"])[12]</t>
+  </si>
+  <si>
+    <t>portfolio-account-0-name</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_NAME_YOUR_ACCOUNTS_1</t>
+  </si>
+  <si>
+    <t>select-account-button</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DASHBOARD_SELECT_ACCOUNT_BTN</t>
+  </si>
+  <si>
+    <t>ic account management</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT_PENCIL_BTN</t>
+  </si>
+  <si>
+    <t>account-summary-name</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SUMMARY_NAME_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>Your account value is</t>
+  </si>
+  <si>
+    <t>YOUR_ACCOUNT_VALUE_IS_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>account-performance-increase-arrow</t>
+  </si>
+  <si>
+    <t>ACCOUNT_PERFORMANCE_INCREASE_ARROW</t>
+  </si>
+  <si>
+    <t>account-summary-total-value</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SUMMARY_TOTAL_VALUE_LABEL</t>
+  </si>
+  <si>
+    <t>account-summary-value-change</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SUMMARY_VALUE_CHANGE_LABEL</t>
+  </si>
+  <si>
+    <t>account-summary-refreshed-at-text</t>
+  </si>
+  <si>
+    <t>ACCOUNT_SUMMARY_REFRESH_AT_LABEL</t>
+  </si>
+  <si>
+    <t>account-toggle-values-button</t>
+  </si>
+  <si>
+    <t>EYE_SIGN_IN_ACCOUNT_DASHBOARD_BTN</t>
+  </si>
+  <si>
+    <t>Holdings</t>
+  </si>
+  <si>
+    <t>HOLDINGS_DRAG_UP_BTN</t>
+  </si>
+  <si>
+    <t>account-close-management-button</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT_CLOSE_BTN</t>
+  </si>
+  <si>
+    <t>Account management</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT_DRAG_UP_BTN</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTIVITY_BTN</t>
+  </si>
+  <si>
+    <t>ACCOUNT_BREAKDOWN_BTN</t>
+  </si>
+  <si>
+    <t>Account breakdown</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Order list</t>
+  </si>
+  <si>
+    <t>ORDER_LIST_TAB</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Account activity"]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTIVITY_SCREEN_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>account-activity-0-type</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTIVITY_1ST_ACTIVITY_NAME_TXT</t>
+  </si>
+  <si>
+    <t>account-activity-0-icon</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTIVITY_1ST_ACTIVITY_ICON_TXT</t>
+  </si>
+  <si>
+    <t>account-activity-0-value</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTIVITY_1ST_ACTIVITY_VALUE_TXT</t>
+  </si>
+  <si>
+    <t>account-activity-0-transaction-type</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTIVITY_1ST_ACTIVITY_TRANSACTION_TYPE_TXT</t>
   </si>
 </sst>
 </file>
@@ -1000,15 +1366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -2110,6 +2476,682 @@
         <v>8</v>
       </c>
     </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>260</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
+        <v>271</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACB07D-E631-7E4D-B388-630837108F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF81078-509F-C84B-B117-E8CF803A0796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="325">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t>ACCOUNT_ACTIVITY_1ST_ACTIVITY_TRANSACTION_TYPE_TXT</t>
+  </si>
+  <si>
+    <t>Empty list</t>
+  </si>
+  <si>
+    <t>EMPTY_LIST_ACTIVITY_TAB</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeCell</t>
+  </si>
+  <si>
+    <t>TOTAL_ACCOUNTS_IN_ACCOUNTS_SCREEN</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3147,9 +3159,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
       <c r="E161" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="E162" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF81078-509F-C84B-B117-E8CF803A0796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54798E-1EDC-1B4A-8742-571542BF4B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="349">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1004,6 +1004,78 @@
   </si>
   <si>
     <t>TOTAL_ACCOUNTS_IN_ACCOUNTS_SCREEN</t>
+  </si>
+  <si>
+    <t>order-0-name</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Date"])[1]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Ref"])[1]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Type"])[1]</t>
+  </si>
+  <si>
+    <t>ORDER_NAME_ORDER_LIST_LABEL</t>
+  </si>
+  <si>
+    <t>ORDER_DATE_ORDER_LIST_LABEL</t>
+  </si>
+  <si>
+    <t>ORDER_REF_ORDER_LIST_LABEL</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_ORDER_LIST_LABEL</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Current status"])[1]</t>
+  </si>
+  <si>
+    <t>CURRENT_STATUS_ORDER_LIST_LABEL</t>
+  </si>
+  <si>
+    <t>order-0-date</t>
+  </si>
+  <si>
+    <t>order-0-ref</t>
+  </si>
+  <si>
+    <t>order-0-type</t>
+  </si>
+  <si>
+    <t>order-0-status</t>
+  </si>
+  <si>
+    <t>ORDER_DATE_ORDER_LIST_VALUE</t>
+  </si>
+  <si>
+    <t>ORDER_REF_ORDER_LIST_VALUE</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_ORDER_LIST_VALUE</t>
+  </si>
+  <si>
+    <t>CURRENT_STATUS_ORDER_LIST_VALUE</t>
+  </si>
+  <si>
+    <t>dashboard_shape_1</t>
+  </si>
+  <si>
+    <t>dashboard_shape_2</t>
+  </si>
+  <si>
+    <t>DASHBOARD_SHAPE_1</t>
+  </si>
+  <si>
+    <t>DASHBOARD_SHAPE_2</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=" "])[2]</t>
+  </si>
+  <si>
+    <t>YOUR_ACCOUNTS_TAB_MINIMIZE_BTN</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3181,6 +3253,138 @@
         <v>5</v>
       </c>
     </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" t="s">
+        <v>326</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>327</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>339</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>340</v>
+      </c>
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" t="s">
+        <v>338</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54798E-1EDC-1B4A-8742-571542BF4B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF61E3-46B8-BC4C-B4D0-B53AE8D4C8A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="375">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -244,9 +244,6 @@
     <t>portfolio-performance-increase-arrow</t>
   </si>
   <si>
-    <t>PORTFOLIO_PERFORMANCE_ARROW</t>
-  </si>
-  <si>
     <t>portfolio-summary-value-change</t>
   </si>
   <si>
@@ -1076,6 +1073,87 @@
   </si>
   <si>
     <t>YOUR_ACCOUNTS_TAB_MINIMIZE_BTN</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_PERFORMANCE_INCREASE_ARROW</t>
+  </si>
+  <si>
+    <t>portfolio-performance-decrease-arrow</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_PERFORMANCE_DECREASE_ARROW</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Portfolio breakdown"]</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_BREAKDOWN_SCREEN_TITLE</t>
+  </si>
+  <si>
+    <t>Investment breakdown</t>
+  </si>
+  <si>
+    <t>INVESTMENT_BREAKDOWN_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Portfolio"]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="circle.fill"])[1]</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_IMAGE</t>
+  </si>
+  <si>
+    <t>portfolio-breakdown-portfolio-value</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_VALUE_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>CASH_LABEL_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_LABEL_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="circle.fill"])[2]</t>
+  </si>
+  <si>
+    <t>CASH_IMAGE</t>
+  </si>
+  <si>
+    <t>portfolio-breakdown-cash</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_CASH_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>COST_LABEL_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="circle.fill"])[3]</t>
+  </si>
+  <si>
+    <t>COST_IMAGE</t>
+  </si>
+  <si>
+    <t>portfolio-breakdown-cost</t>
+  </si>
+  <si>
+    <t>COST_VALUE_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>ic info</t>
+  </si>
+  <si>
+    <t>COST_INFO_BTN</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1573,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1506,7 +1584,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1858,7 +1936,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -1869,10 +1947,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1880,10 +1958,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1891,10 +1969,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1902,10 +1980,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1913,10 +1991,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1924,10 +2002,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1935,10 +2013,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1946,10 +2024,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1957,10 +2035,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1968,10 +2046,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1979,10 +2057,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1990,10 +2068,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -2001,10 +2079,10 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -2012,10 +2090,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -2023,10 +2101,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -2034,10 +2112,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -2045,10 +2123,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -2056,10 +2134,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -2067,10 +2145,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -2078,10 +2156,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -2089,10 +2167,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -2100,10 +2178,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -2111,10 +2189,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -2122,10 +2200,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -2133,10 +2211,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2144,10 +2222,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -2155,10 +2233,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -2166,10 +2244,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -2177,10 +2255,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -2188,10 +2266,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -2199,10 +2277,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" t="s">
-        <v>135</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -2210,10 +2288,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -2221,10 +2299,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -2232,10 +2310,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -2243,10 +2321,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -2254,10 +2332,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -2265,10 +2343,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
         <v>145</v>
-      </c>
-      <c r="B73" t="s">
-        <v>146</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2276,10 +2354,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2287,10 +2365,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -2298,10 +2376,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -2309,10 +2387,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -2320,10 +2398,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2331,10 +2409,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -2342,10 +2420,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -2353,10 +2431,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -2364,10 +2442,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -2375,10 +2453,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -2386,10 +2464,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -2397,10 +2475,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -2408,10 +2486,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
         <v>172</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -2419,10 +2497,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2430,10 +2508,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -2441,10 +2519,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2452,10 +2530,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2463,10 +2541,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -2474,10 +2552,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -2485,10 +2563,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2496,10 +2574,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -2507,10 +2585,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2518,10 +2596,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2529,10 +2607,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -2540,10 +2618,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -2551,10 +2629,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2562,10 +2640,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2573,10 +2651,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -2584,10 +2662,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -2595,10 +2673,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -2606,10 +2684,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -2617,10 +2695,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2628,10 +2706,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -2639,10 +2717,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -2650,10 +2728,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
@@ -2661,10 +2739,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2672,10 +2750,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -2683,10 +2761,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -2694,10 +2772,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -2705,10 +2783,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -2716,10 +2794,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -2727,10 +2805,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -2738,10 +2816,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -2749,10 +2827,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -2760,10 +2838,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -2771,10 +2849,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -2782,10 +2860,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
@@ -2793,10 +2871,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -2804,10 +2882,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -2815,10 +2893,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -2826,10 +2904,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -2837,10 +2915,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -2848,10 +2926,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -2859,10 +2937,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
         <v>252</v>
-      </c>
-      <c r="B127" t="s">
-        <v>253</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -2870,10 +2948,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -2881,10 +2959,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -2892,10 +2970,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2903,10 +2981,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -2914,10 +2992,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -2925,10 +3003,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -2936,10 +3014,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -2947,10 +3025,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -2958,10 +3036,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -2969,10 +3047,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -2980,10 +3058,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -2991,10 +3069,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -3002,10 +3080,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3013,10 +3091,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -3024,10 +3102,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -3035,10 +3113,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3046,10 +3124,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -3057,10 +3135,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -3068,10 +3146,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -3079,10 +3157,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -3090,10 +3168,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -3101,10 +3179,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -3112,10 +3190,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -3123,10 +3201,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -3134,10 +3212,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -3145,10 +3223,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -3156,10 +3234,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" t="s">
         <v>306</v>
-      </c>
-      <c r="B154" t="s">
-        <v>307</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -3167,10 +3245,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -3178,10 +3256,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -3189,10 +3267,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -3200,10 +3278,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -3211,10 +3289,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -3222,10 +3300,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -3233,10 +3311,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -3244,10 +3322,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -3255,10 +3333,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -3266,10 +3344,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -3277,10 +3355,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -3288,10 +3366,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -3299,10 +3377,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -3310,10 +3388,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -3321,10 +3399,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -3332,10 +3410,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -3343,10 +3421,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -3354,10 +3432,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -3365,10 +3443,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B173" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -3376,13 +3454,156 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+      <c r="E178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" t="s">
+        <v>360</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF61E3-46B8-BC4C-B4D0-B53AE8D4C8A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD8E2D-BAD7-D345-BE45-13F71012BA2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="393">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -184,9 +184,6 @@
     <t>PORTFOLIO_EYE_ICON_BTN</t>
   </si>
   <si>
-    <t>Your accounts</t>
-  </si>
-  <si>
     <t>YOUR_ACCOUNTS_TAB</t>
   </si>
   <si>
@@ -1069,9 +1066,6 @@
     <t>DASHBOARD_SHAPE_2</t>
   </si>
   <si>
-    <t>(//XCUIElementTypeButton[@name=" "])[2]</t>
-  </si>
-  <si>
     <t>YOUR_ACCOUNTS_TAB_MINIMIZE_BTN</t>
   </si>
   <si>
@@ -1090,9 +1084,6 @@
     <t>PORTFOLIO_BREAKDOWN_SCREEN_TITLE</t>
   </si>
   <si>
-    <t>Investment breakdown</t>
-  </si>
-  <si>
     <t>INVESTMENT_BREAKDOWN_LABEL_TXT</t>
   </si>
   <si>
@@ -1129,9 +1120,6 @@
     <t>portfolio-breakdown-cash</t>
   </si>
   <si>
-    <t>PORTFOLIO_CASH_IN_PORTFOLIO_BREAKDOWN</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -1154,6 +1142,72 @@
   </si>
   <si>
     <t>COST_INFO_BTN</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>PROGRESS_CIRCLE_ICON</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[starts-with(@value,"Your accounts")]</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_CASH_VALUE_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Investment breakdown"]</t>
+  </si>
+  <si>
+    <t>Cost information</t>
+  </si>
+  <si>
+    <t>COST_INFO_POP_UP_TITLE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Got it"]</t>
+  </si>
+  <si>
+    <t>GOT_IT_BTN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name=" "]</t>
+  </si>
+  <si>
+    <t>portfolio-accounts-refreshed-at</t>
+  </si>
+  <si>
+    <t>YOUR_ACCOUNTS_TIME_STAMP_LABEL</t>
+  </si>
+  <si>
+    <t>portfolio-account-0-managed-by</t>
+  </si>
+  <si>
+    <t>portfolio-account-0-total-value</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_TOTAL_VALUE_1</t>
+  </si>
+  <si>
+    <t>portfolio-account-0-value-change</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_VALUE_CHANGE_1</t>
+  </si>
+  <si>
+    <t>portfolio-account-0-code</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_CODE_1</t>
+  </si>
+  <si>
+    <t>portfolio-account-0-percentage-change</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_PERCENTAGE_CHANGE_1</t>
+  </si>
+  <si>
+    <t>MANAGED_BY_CS_LABEL_IN_YAOUR_ACCOUNTS_1</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1627,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1584,7 +1638,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1719,7 +1773,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1771,21 +1825,21 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>373</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1793,10 +1847,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1870,10 +1924,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1881,10 +1935,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1892,10 +1946,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1903,10 +1957,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1914,10 +1968,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1925,10 +1979,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1936,10 +1990,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1947,10 +2001,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1958,10 +2012,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1969,10 +2023,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1980,10 +2034,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1991,10 +2045,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -2002,10 +2056,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -2013,10 +2067,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -2024,10 +2078,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -2035,10 +2089,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -2046,10 +2100,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -2057,10 +2111,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -2068,10 +2122,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -2079,10 +2133,10 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -2090,10 +2144,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -2101,10 +2155,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -2112,10 +2166,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -2123,10 +2177,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -2134,10 +2188,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -2145,10 +2199,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -2156,10 +2210,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -2167,10 +2221,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -2178,10 +2232,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -2189,10 +2243,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -2200,10 +2254,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -2211,10 +2265,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2222,10 +2276,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -2233,10 +2287,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -2244,10 +2298,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -2255,10 +2309,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -2266,10 +2320,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -2277,10 +2331,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
         <v>133</v>
-      </c>
-      <c r="B67" t="s">
-        <v>134</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -2288,10 +2342,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -2299,10 +2353,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -2310,10 +2364,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -2321,10 +2375,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -2332,10 +2386,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -2343,10 +2397,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2354,10 +2408,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2365,10 +2419,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -2376,10 +2430,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -2387,10 +2441,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -2398,10 +2452,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2409,10 +2463,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
         <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>158</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -2420,10 +2474,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -2431,10 +2485,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -2442,10 +2496,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -2453,10 +2507,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -2464,10 +2518,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
         <v>167</v>
-      </c>
-      <c r="B84" t="s">
-        <v>168</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -2475,10 +2529,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -2486,10 +2540,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
         <v>171</v>
-      </c>
-      <c r="B86" t="s">
-        <v>172</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -2497,10 +2551,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2508,10 +2562,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -2519,10 +2573,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2530,10 +2584,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2541,10 +2595,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -2552,10 +2606,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -2563,10 +2617,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2574,10 +2628,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -2585,10 +2639,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2596,10 +2650,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2607,10 +2661,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -2618,10 +2672,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -2629,10 +2683,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2640,10 +2694,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2651,10 +2705,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -2662,10 +2716,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -2673,10 +2727,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -2684,10 +2738,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -2695,10 +2749,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2706,10 +2760,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -2717,10 +2771,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -2728,10 +2782,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
@@ -2739,10 +2793,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2750,10 +2804,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -2761,10 +2815,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -2772,10 +2826,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -2783,10 +2837,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -2794,10 +2848,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -2805,10 +2859,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -2816,10 +2870,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -2827,10 +2881,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -2838,10 +2892,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -2849,10 +2903,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -2860,10 +2914,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
@@ -2871,10 +2925,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -2882,10 +2936,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -2893,10 +2947,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -2904,10 +2958,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -2915,10 +2969,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -2926,10 +2980,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -2937,10 +2991,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
         <v>251</v>
-      </c>
-      <c r="B127" t="s">
-        <v>252</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -2948,10 +3002,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -2959,10 +3013,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -2970,10 +3024,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2981,10 +3035,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -2992,10 +3046,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -3003,10 +3057,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -3014,10 +3068,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -3025,10 +3079,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -3036,10 +3090,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -3047,10 +3101,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -3058,10 +3112,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -3069,10 +3123,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -3080,10 +3134,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3091,10 +3145,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -3102,10 +3156,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -3113,10 +3167,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3124,10 +3178,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -3135,10 +3189,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -3146,10 +3200,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -3157,10 +3211,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -3168,10 +3222,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -3179,10 +3233,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -3190,10 +3244,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -3201,10 +3255,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -3212,10 +3266,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -3223,10 +3277,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -3234,10 +3288,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
         <v>305</v>
-      </c>
-      <c r="B154" t="s">
-        <v>306</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -3245,10 +3299,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -3256,10 +3310,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -3267,10 +3321,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -3278,10 +3332,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -3289,10 +3343,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -3300,10 +3354,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -3311,10 +3365,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -3322,10 +3376,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -3333,10 +3387,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -3344,10 +3398,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -3355,10 +3409,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -3366,10 +3420,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -3377,10 +3431,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -3388,10 +3442,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -3399,10 +3453,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -3410,10 +3464,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -3421,10 +3475,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -3432,10 +3486,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -3443,10 +3497,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -3454,10 +3508,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -3465,10 +3519,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -3476,10 +3530,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -3487,21 +3541,21 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -3509,10 +3563,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -3520,10 +3574,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -3531,10 +3585,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -3542,10 +3596,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -3553,10 +3607,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -3564,10 +3618,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -3575,10 +3629,10 @@
     </row>
     <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -3586,10 +3640,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -3597,12 +3651,111 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s">
+        <v>371</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" t="s">
+        <v>378</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>385</v>
+      </c>
+      <c r="B193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" t="s">
+        <v>386</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" t="s">
+        <v>388</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" t="s">
+        <v>390</v>
+      </c>
+      <c r="E196" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD8E2D-BAD7-D345-BE45-13F71012BA2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8B391-0DA8-6A4C-BF3C-DDDD101F3F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8B391-0DA8-6A4C-BF3C-DDDD101F3F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7C893-4D9D-374B-8965-D40341F5CDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="411">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1208,6 +1208,60 @@
   </si>
   <si>
     <t>MANAGED_BY_CS_LABEL_IN_YAOUR_ACCOUNTS_1</t>
+  </si>
+  <si>
+    <t>Show total for</t>
+  </si>
+  <si>
+    <t>SHOW_TOTAL_FOR_SCREEN_TITLE</t>
+  </si>
+  <si>
+    <t>All accounts</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeSwitch</t>
+  </si>
+  <si>
+    <t>ALL_ACCOUNTS_LABEL_IN_SHOW_ALL_SCREEN</t>
+  </si>
+  <si>
+    <t>TOGGLE_BTN_SHOW_ALL_SCREEN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Update total"]</t>
+  </si>
+  <si>
+    <t>UPDATE_TOTAL_BTN_SHOW_ALL_SCREEN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"Mr")]</t>
+  </si>
+  <si>
+    <t>ACCOUNTS_LIST_SHOWALL_SCREEN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeImage[contains(@name,"ic_tick")]</t>
+  </si>
+  <si>
+    <t>TICKS_IN_SHOWALL_SCREEN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@label,"Mr")]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NAMES_IN_YOUR_ACCOUNTS_SCREEN</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeImage[@name="ic_unselected"])[1]</t>
+  </si>
+  <si>
+    <t>CHECK_BOX_1_SHOW_TOTAL_FOR_SCREEN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="-----"]</t>
+  </si>
+  <si>
+    <t>DASH_SIGN_IN_PORTFOLIO_BREAKDOWN</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3759,6 +3813,105 @@
         <v>8</v>
       </c>
     </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>398</v>
+      </c>
+      <c r="B199" t="s">
+        <v>396</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>404</v>
+      </c>
+      <c r="B201" t="s">
+        <v>403</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>401</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>406</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>408</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>410</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7C893-4D9D-374B-8965-D40341F5CDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36682015-E9E1-B142-8BBD-3962A599A5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="453">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -952,9 +952,6 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>Order list</t>
-  </si>
-  <si>
     <t>ORDER_LIST_TAB</t>
   </si>
   <si>
@@ -1262,6 +1259,135 @@
   </si>
   <si>
     <t>DASH_SIGN_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>order-list-tab-button</t>
+  </si>
+  <si>
+    <t>activity-tab-button</t>
+  </si>
+  <si>
+    <t>ACTIVITY_TAB</t>
+  </si>
+  <si>
+    <t>Pay money in</t>
+  </si>
+  <si>
+    <t>PAY_MONEY_IN_BTN_ACC_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="CANCELLED"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="COMPLETE"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="PROCESSING"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="DEALT"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="REJECTED"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="EXPIRED"]</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_CANCELLED</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_COMPLETE</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_PROCESSING</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_DEALT</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_REJECTED</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_EXPIRED</t>
+  </si>
+  <si>
+    <t>close-order-details-button</t>
+  </si>
+  <si>
+    <t>CLOSE_ORDER_DETAILS_BTN</t>
+  </si>
+  <si>
+    <t>Order detail</t>
+  </si>
+  <si>
+    <t>ORDER_DETAILS_TITLE</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_STATUS_FIELD</t>
+  </si>
+  <si>
+    <t>Trade type</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_TRADE_TYPE_FIELD</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Date"])[9]</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_DATE_FIELD</t>
+  </si>
+  <si>
+    <t>Settlement date</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_SETTLEMENT_DATE_FIELD</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_PRICE_FIELD</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_QUANTITY_FIELD</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_CONSIDERATION_FIELD</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_OTHER_FIELD</t>
+  </si>
+  <si>
+    <t>Dealing fee</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_DEALING_FEE_FIELD</t>
+  </si>
+  <si>
+    <t>Estimated value</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_ESTIMATED_VALUE_FIELD</t>
+  </si>
+  <si>
+    <t>cancel-order-button</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_CANCEL_ORDER_BTN</t>
   </si>
 </sst>
 </file>
@@ -1636,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1882,7 +2008,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -2044,7 +2170,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -3353,10 +3479,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -3364,10 +3490,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -3375,10 +3501,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -3386,10 +3512,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -3397,10 +3523,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -3408,10 +3534,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -3419,10 +3545,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -3430,10 +3556,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -3441,10 +3567,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -3452,10 +3578,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -3463,10 +3589,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -3474,10 +3600,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -3485,10 +3611,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -3496,10 +3622,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -3507,10 +3633,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -3518,10 +3644,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -3529,10 +3655,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -3540,10 +3666,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -3551,10 +3677,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -3562,10 +3688,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -3573,10 +3699,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -3584,10 +3710,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -3595,10 +3721,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -3606,10 +3732,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -3617,10 +3743,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -3628,10 +3754,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -3639,10 +3765,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -3650,10 +3776,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -3661,10 +3787,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -3672,10 +3798,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -3683,10 +3809,10 @@
     </row>
     <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -3694,10 +3820,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -3705,10 +3831,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -3716,10 +3842,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -3727,10 +3853,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -3738,10 +3864,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -3749,10 +3875,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E191" t="s">
         <v>8</v>
@@ -3760,10 +3886,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -3771,10 +3897,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -3782,10 +3908,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -3793,10 +3919,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
@@ -3804,10 +3930,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -3815,10 +3941,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -3826,10 +3952,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -3837,10 +3963,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
@@ -3848,10 +3974,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -3859,10 +3985,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B201" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
@@ -3870,10 +3996,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -3881,10 +4007,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B203" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E203" t="s">
         <v>5</v>
@@ -3892,10 +4018,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -3903,13 +4029,244 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>414</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>422</v>
+      </c>
+      <c r="B209" t="s">
+        <v>416</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" t="s">
+        <v>417</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" t="s">
+        <v>418</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" t="s">
+        <v>420</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>432</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>434</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+      <c r="E218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>440</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>446</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>450</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>452</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36682015-E9E1-B142-8BBD-3962A599A5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95F906-B204-6240-B441-A0827D5ADA26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="461">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1388,6 +1388,30 @@
   </si>
   <si>
     <t>ORDER_DETAIL_CANCEL_ORDER_BTN</t>
+  </si>
+  <si>
+    <t>Select account</t>
+  </si>
+  <si>
+    <t>SELECT_ACCOUNT_TITLE</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>SELECT_ACCOUNT_CLOSE_BTN</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="CURRENTLY SELECTED"]</t>
+  </si>
+  <si>
+    <t>CURRENTLY_SELECTED_LABEL</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="OTHER ACCOUNTS"]</t>
+  </si>
+  <si>
+    <t>OTHER_ACCOUNTS_LABEL</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4269,6 +4293,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>456</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>458</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+      <c r="E229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+      <c r="E230" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95F906-B204-6240-B441-A0827D5ADA26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06336DDF-40EF-D147-BE54-DA93DD9065A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="476">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1412,6 +1412,51 @@
   </si>
   <si>
     <t>OTHER_ACCOUNTS_LABEL</t>
+  </si>
+  <si>
+    <t>ACCOUNT_PERFORMANCE_DECREASE_ARROW</t>
+  </si>
+  <si>
+    <t>account-performance-decrease-arrow</t>
+  </si>
+  <si>
+    <t>currently-selected-account-name</t>
+  </si>
+  <si>
+    <t>currently-selected-account-code</t>
+  </si>
+  <si>
+    <t>CURRENTLY_SELECTED_ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>CURRENTLY_SELECTED_ACCOUNT_CODE</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Account breakdown"]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_BREAKDOWN_SCREEN_TITLE</t>
+  </si>
+  <si>
+    <t>account-breakdown-portfolio-value</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_VALUE_IN_ACCOUNT_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>account-breakdown-cash</t>
+  </si>
+  <si>
+    <t>CASH_VALUE_IN_ACCOUNT_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>account-breakdown-cost</t>
+  </si>
+  <si>
+    <t>COST_VALUE_IN_ACCOUNT_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>ACCOUNT_BREAKDOWN_REFRESH_TIME_LABEL</t>
   </si>
 </sst>
 </file>
@@ -1786,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4337,6 +4382,91 @@
         <v>5</v>
       </c>
     </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>461</v>
+      </c>
+      <c r="B231" t="s">
+        <v>462</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>465</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>466</v>
+      </c>
+      <c r="B233" t="s">
+        <v>464</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>468</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+      <c r="E234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>470</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>472</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>475</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/object-repository/OneCSAppiOS.xlsx
+++ b/src/test/resources/object-repository/OneCSAppiOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06336DDF-40EF-D147-BE54-DA93DD9065A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1696E-D625-AA4D-9B2F-A46F1FEA1A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="486">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1457,6 +1457,36 @@
   </si>
   <si>
     <t>ACCOUNT_BREAKDOWN_REFRESH_TIME_LABEL</t>
+  </si>
+  <si>
+    <t>account-holding-0-value</t>
+  </si>
+  <si>
+    <t>ACCOUNT_HOLDING_VALUE_1</t>
+  </si>
+  <si>
+    <t>account-holding-0-price</t>
+  </si>
+  <si>
+    <t>ACCOUNT_HOLDING_PRICE_1</t>
+  </si>
+  <si>
+    <t>account-holding-0-value-change</t>
+  </si>
+  <si>
+    <t>ACCOUNT_HOLDING_VALUE_CHANGE_1</t>
+  </si>
+  <si>
+    <t>account-holding-0-cost</t>
+  </si>
+  <si>
+    <t>ACCOUNT_HOLDING_COST_1</t>
+  </si>
+  <si>
+    <t>account-holding-0-percentage-change</t>
+  </si>
+  <si>
+    <t>ACCOUNT_HOLDING_PERCENTAGE_CHANGE_1</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4467,6 +4497,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>477</v>
+      </c>
+      <c r="B239" t="s">
+        <v>476</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>479</v>
+      </c>
+      <c r="B240" t="s">
+        <v>478</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>481</v>
+      </c>
+      <c r="B241" t="s">
+        <v>480</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>483</v>
+      </c>
+      <c r="B242" t="s">
+        <v>482</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>485</v>
+      </c>
+      <c r="B243" t="s">
+        <v>484</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
